--- a/papers-in-sessions.xlsx
+++ b/papers-in-sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mark/Projects/acs2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C177F719-A1A6-2C40-9920-99A94416F07C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704C3819-4523-BF4E-823D-54E352E49225}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15020" yWindow="5240" windowWidth="33120" windowHeight="21260" xr2:uid="{C59E5D1B-900F-9745-BB9B-F644F9F51CF1}"/>
   </bookViews>
@@ -329,7 +329,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -339,6 +339,13 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -416,9 +423,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -443,8 +450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -763,7 +769,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -915,7 +921,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -928,7 +934,7 @@
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1013,7 +1019,7 @@
       <c r="D14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="14" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1187,7 +1193,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -1200,11 +1206,11 @@
       <c r="D25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -1217,7 +1223,7 @@
       <c r="D26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1234,7 +1240,7 @@
       <c r="D27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1272,7 +1278,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>33</v>
       </c>
@@ -1285,7 +1291,7 @@
       <c r="D30" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="1" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1326,13 +1332,6 @@
   <sortState ref="A2:D31">
     <sortCondition ref="A2:A31"/>
   </sortState>
-  <hyperlinks>
-    <hyperlink ref="E9" r:id="rId1" xr:uid="{A8CCEEBC-797A-EC4C-9E30-581089DADC04}"/>
-    <hyperlink ref="E25" r:id="rId2" xr:uid="{C1A93B85-77C0-5C46-965B-42C2F6A5BC8C}"/>
-    <hyperlink ref="E26" r:id="rId3" xr:uid="{F2BA5AD2-C94D-CF4E-B5DF-BE6DDE50DE8B}"/>
-    <hyperlink ref="E27" r:id="rId4" xr:uid="{92AC92FB-1D87-9D47-B2FC-9CA525F58A91}"/>
-    <hyperlink ref="E30" r:id="rId5" xr:uid="{27EB3973-60A1-A240-947F-FBF235F33648}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/papers-in-sessions.xlsx
+++ b/papers-in-sessions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mark/Projects/acs2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704C3819-4523-BF4E-823D-54E352E49225}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2E5FCE-D501-2F43-8F43-B085D5022EE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15020" yWindow="5240" windowWidth="33120" windowHeight="21260" xr2:uid="{C59E5D1B-900F-9745-BB9B-F644F9F51CF1}"/>
+    <workbookView xWindow="12700" yWindow="4100" windowWidth="33120" windowHeight="21260" xr2:uid="{C59E5D1B-900F-9745-BB9B-F644F9F51CF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="143">
   <si>
     <t>#</t>
   </si>
@@ -196,9 +196,6 @@
   </si>
   <si>
     <t>Marjorie McShane and Ivan Leon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> W.V. Yarlottt, A. Ochoa, A. Acharya, L. Bobrow, D. C. Estrada, D. Gomez, J. Zeng, D. McDonald, C. Miller and M. A. Finlayson</t>
   </si>
   <si>
     <t>Scott Friedman, Ian Magnususon, Vasanth Sarathy and Sonja Schmer-Galunder</t>
@@ -323,6 +320,141 @@
   </si>
   <si>
     <t>https://acs-2021-workspace.slack.com/archives/C02L0JVK99B</t>
+  </si>
+  <si>
+    <t>paper01-cox</t>
+  </si>
+  <si>
+    <t>paper02-yang</t>
+  </si>
+  <si>
+    <t>paper03-solbach</t>
+  </si>
+  <si>
+    <t>paper04-mcshane</t>
+  </si>
+  <si>
+    <t>paper05-mcshane</t>
+  </si>
+  <si>
+    <t>paper06-laird</t>
+  </si>
+  <si>
+    <t>paper07-zeng</t>
+  </si>
+  <si>
+    <t>paper08-kondrakuntum</t>
+  </si>
+  <si>
+    <t>paper10-dinakar</t>
+  </si>
+  <si>
+    <t>paper11-ritter</t>
+  </si>
+  <si>
+    <t>paper13-wray</t>
+  </si>
+  <si>
+    <t>paper14-schmidke</t>
+  </si>
+  <si>
+    <t>paper15-mannering</t>
+  </si>
+  <si>
+    <t>paper16-hinrichs</t>
+  </si>
+  <si>
+    <t>paper17-olson</t>
+  </si>
+  <si>
+    <t>paper18-yuan</t>
+  </si>
+  <si>
+    <t>paper19-mcfate</t>
+  </si>
+  <si>
+    <t>paper20-li</t>
+  </si>
+  <si>
+    <t>paper21-friedman</t>
+  </si>
+  <si>
+    <t>paper22-tan</t>
+  </si>
+  <si>
+    <t>paper23-yarlott</t>
+  </si>
+  <si>
+    <t>paper24-angelika-nikita</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> W.V. Yarlott, A. Ochoa, A. Acharya, L. Bobrow, D. C. Estrada, D. Gomez, J. Zeng, D. McDonald, C. Miller and M. A. Finlayson</t>
+  </si>
+  <si>
+    <t>paper09-yuan</t>
+  </si>
+  <si>
+    <t>paper25-forbus</t>
+  </si>
+  <si>
+    <t>paper-26-battad</t>
+  </si>
+  <si>
+    <t>paper28-langley</t>
+  </si>
+  <si>
+    <t>paper29-Dannenhauer</t>
+  </si>
+  <si>
+    <t>paper30-maclellan</t>
+  </si>
+  <si>
+    <t>paper35-musliner</t>
+  </si>
+  <si>
+    <t>paper33-langley</t>
+  </si>
+  <si>
+    <t>Gerd Gigerenzer</t>
+  </si>
+  <si>
+    <t>Psychological AI: Simplicity and Transparency in Prediction</t>
+  </si>
+  <si>
+    <t>invited01-gigerenzer</t>
+  </si>
+  <si>
+    <t>James Allen</t>
+  </si>
+  <si>
+    <t>Ute Schmid</t>
+  </si>
+  <si>
+    <t>Anthony Cohn</t>
+  </si>
+  <si>
+    <t>Conversational systems: Past, Present and Future</t>
+  </si>
+  <si>
+    <t>Reconciling knowledge-based and data-driven AI for human-in-the-loop machine learning</t>
+  </si>
+  <si>
+    <t>Manipulation in cluttered environments and interacting with robots</t>
+  </si>
+  <si>
+    <t>invited02-allen</t>
+  </si>
+  <si>
+    <t>invited03-schmid</t>
+  </si>
+  <si>
+    <t>invited04-cohn</t>
+  </si>
+  <si>
+    <t>GBR Workshop</t>
+  </si>
+  <si>
+    <t>goal-based-reasoning-workshop</t>
   </si>
 </sst>
 </file>
@@ -766,10 +898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7E0550-1DE8-8541-B9F9-4AD743B863C0}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -778,6 +910,7 @@
     <col min="2" max="3" width="39.1640625" style="13" customWidth="1"/>
     <col min="4" max="4" width="6.5" customWidth="1"/>
     <col min="5" max="5" width="29.5" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -794,7 +927,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -816,7 +949,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -833,7 +969,10 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -841,7 +980,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>38</v>
@@ -850,7 +989,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -858,7 +1000,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>10</v>
@@ -867,7 +1009,10 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -884,7 +1029,10 @@
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -901,7 +1049,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -909,7 +1060,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>29</v>
@@ -918,7 +1069,10 @@
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -926,16 +1080,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -952,10 +1109,13 @@
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -969,10 +1129,13 @@
         <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -986,15 +1149,18 @@
         <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>13</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>9</v>
@@ -1003,7 +1169,10 @@
         <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -1011,7 +1180,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>31</v>
@@ -1020,10 +1189,13 @@
         <v>5</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -1037,7 +1209,10 @@
         <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -1054,10 +1229,13 @@
         <v>16</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -1071,10 +1249,13 @@
         <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -1088,10 +1269,13 @@
         <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -1105,15 +1289,18 @@
         <v>12</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>20</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>30</v>
@@ -1122,15 +1309,18 @@
         <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>21</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>14</v>
@@ -1139,10 +1329,13 @@
         <v>12</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -1156,15 +1349,18 @@
         <v>12</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="8" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>23</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>15</v>
@@ -1173,10 +1369,13 @@
         <v>16</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>24</v>
       </c>
@@ -1190,10 +1389,13 @@
         <v>5</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -1207,10 +1409,13 @@
         <v>12</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -1224,10 +1429,13 @@
         <v>12</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>28</v>
       </c>
@@ -1241,10 +1449,13 @@
         <v>5</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>29</v>
       </c>
@@ -1258,10 +1469,13 @@
         <v>22</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>30</v>
       </c>
@@ -1275,15 +1489,18 @@
         <v>12</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>33</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>32</v>
@@ -1292,10 +1509,13 @@
         <v>5</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>35</v>
       </c>
@@ -1309,28 +1529,86 @@
         <v>5</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-    </row>
-    <row r="33" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-    </row>
-    <row r="34" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-    </row>
-    <row r="36" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="9"/>
+        <v>97</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>101</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>102</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="1" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>103</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>104</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>110</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>141</v>
+      </c>
       <c r="C36" s="9"/>
+      <c r="H36" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H37" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:D31">
-    <sortCondition ref="A2:A31"/>
+  <sortState ref="A2:D32">
+    <sortCondition ref="A2:A32"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/papers-in-sessions.xlsx
+++ b/papers-in-sessions.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mark/Projects/acs2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EF411D6-2F14-C841-A8CE-134742F63148}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D988AF09-181A-FB4F-87EF-2DFFB4188A3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12380" yWindow="6460" windowWidth="27240" windowHeight="16440"/>
+    <workbookView xWindow="16900" yWindow="5560" windowWidth="22900" windowHeight="17020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="papers-in-sessions" sheetId="1" r:id="rId1"/>
@@ -476,7 +476,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1313,7 +1313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
@@ -1323,7 +1323,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="45.33203125" customWidth="1"/>
-    <col min="7" max="7" width="64.33203125" customWidth="1"/>
+    <col min="7" max="7" width="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
